--- a/biology/Zoologie/Wilhelm_August_Heinrich_Blasius/Wilhelm_August_Heinrich_Blasius.xlsx
+++ b/biology/Zoologie/Wilhelm_August_Heinrich_Blasius/Wilhelm_August_Heinrich_Blasius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm August Heinrich Blasius est un ornithologue allemand, né le 5 juillet 1845 à Brunswick et mort le 31 mai 1912 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en sciences et en médecine, il appartient à une famille de scientifiques : son père est l’ornithologue et le mammalogiste Johann Heinrich Blasius (1809-1870) et son frère est l’ornithologue Rudolf Heinrich Paul Blasius (1842-1907).
 En 1870, il devient le directeur du muséum de Brunswick, l’année suivante, il devient professeur de zoologie et de botanique de l'Herzogliche Technische Hochschule. Il y dirige également le jardin botanique. Il est resté célèbre pour publier la description des nouvelles espèces qu’il découvre dans un quotidien, Braunschweigische Anzeigen, plutôt que dans une revue scientifique, car il jugeait le délai de publication beaucoup trop long.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins, Whose Bird ? Common Bird Names and the People They Commemorate, New Haven et Londres, Yale University Press, 2003, 400 p.  (ISBN 0-300-10359-X)</t>
         </is>
